--- a/Project/Phase 2/Sprint4/Burndown chart.xlsx
+++ b/Project/Phase 2/Sprint4/Burndown chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EsteLivro" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Downloads\SE2223_57049_59213_60173_60390_60747-master\SE2223_57049_59213_60173_60390_60747-master\Project\Phase 2\Sprint 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Desktop\Sophia\Faculdade\ES\ganttprojectstable\Project\Phase 2\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90357BF2-4F64-4AF0-B2D6-E900D45DE348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753958CF-9F3C-4596-9E31-F8E5760674FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="1485" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
     <t>Continuação de alguns use cases</t>
   </si>
   <si>
-    <t>Finalizaçao dos diagramas Use Cases</t>
+    <t>Finalização dos diagramas Use Cases</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -330,10 +330,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -343,10 +343,23 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -356,7 +369,80 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -367,145 +453,40 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -525,90 +506,15 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,11 +527,98 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1050,7 +1043,7 @@
         <c:axId val="1048433599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="31"/>
+          <c:max val="22"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2140,48 +2133,49 @@
   <sheetPr codeName="Folha1">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="B2:I28"/>
+  <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="35" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2199,13 +2193,13 @@
       <c r="H4" s="4">
         <v>44889</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="44">
         <v>44890</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
-      <c r="C5" s="36"/>
+    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2215,445 +2209,445 @@
       <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="39">
         <v>1</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="19">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="D6" s="41">
+        <v>1</v>
+      </c>
+      <c r="E6" s="42">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="24">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="24">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="20">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="20">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="20">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="24">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="39">
-        <v>1</v>
-      </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="24">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="20">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="39">
-        <v>1</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="D13" s="15">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="24">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="20">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="39">
-        <v>1</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="24">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="20">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="39">
-        <v>1</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="24">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
         <v>11</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="20">
-        <v>1</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39">
-        <v>1</v>
-      </c>
-      <c r="I16" s="39"/>
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="24">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="20">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39">
-        <v>1</v>
-      </c>
-      <c r="I17" s="39"/>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="24">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="9">
         <v>13</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="20">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39">
-        <v>1</v>
-      </c>
-      <c r="I18" s="39"/>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="9">
         <v>14</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="20">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39">
-        <v>1</v>
-      </c>
-      <c r="I19" s="39"/>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="24">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="9">
         <v>15</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39">
-        <v>1</v>
-      </c>
-      <c r="I20" s="39"/>
+      <c r="D20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="24">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="9">
         <v>16</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="20">
-        <v>1</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39">
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="24">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="9">
         <v>17</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="20">
-        <v>1</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39">
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="24">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="9">
         <v>18</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="20">
-        <v>1</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39">
+      <c r="D23" s="15">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="24">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="9">
         <v>19</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="20">
-        <v>1</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39">
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="24">
+    <row r="25" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="27">
         <v>20</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="20">
-        <v>1</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39">
+      <c r="D25" s="29">
+        <v>1</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="33" t="s">
+    <row r="26" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="21">
+      <c r="C26" s="33"/>
+      <c r="D26" s="34">
         <v>0</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="34">
         <f>SUM(E6:E25)</f>
         <v>3</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="34">
         <f t="shared" ref="F26:I26" si="0">SUM(F6:F25)</f>
         <v>3</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="15">
+      <c r="C27" s="16"/>
+      <c r="D27" s="17">
         <f>SUM(D6:D26)</f>
         <v>20</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="18">
         <f>D27-SUM(E6:E25)</f>
         <v>17</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="18">
         <f t="shared" ref="F27:I27" si="1">E27-SUM(F6:F25)</f>
         <v>14</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="29" t="s">
+    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="17">
+      <c r="C28" s="22"/>
+      <c r="D28" s="23">
         <f>D27</f>
         <v>20</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="1">
         <f>$D$28-($D$28/(COLUMNS(E5:I5))*COLUMNS(E5))</f>
         <v>16</v>
       </c>
@@ -2661,11 +2655,11 @@
         <f>$D$28-($D$28/(COLUMNS(E5:I5))*COLUMNS(E5:F5))</f>
         <v>12</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <f>$D$28-($D$28/(COLUMNS(E5:I5))*COLUMNS(E5:G5))</f>
         <v>8</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <f>$D$28-($D$28/(COLUMNS(E5:I5))*COLUMNS(E5:H5))</f>
         <v>4</v>
       </c>
